--- a/Statystyki_2018/Template/aopc_.xlsx
+++ b/Statystyki_2018/Template/aopc_.xlsx
@@ -686,6 +686,12 @@
     <t>na posiedzeniu</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jola Mika</t>
+  </si>
+  <si>
     <t>Kordyka Krystian</t>
   </si>
   <si>
@@ -696,12 +702,6 @@
   </si>
   <si>
     <t>Nowak Jan</t>
-  </si>
-  <si>
-    <t>6023.15</t>
-  </si>
-  <si>
-    <t>8023.15</t>
   </si>
   <si>
     <t>Sokołowski Michał</t>
@@ -1479,7 +1479,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - akcent 1" xfId="1"/>
@@ -1921,7 +1923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:ET15"/>
+  <dimension ref="A2:ET16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="77" zoomScaleSheetLayoutView="77" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="ER8" activePane="bottomRight" state="frozen"/>
@@ -3783,12 +3785,464 @@
         <v>148</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="87">
+        <v>1</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="88">
+        <v>1</v>
+      </c>
+      <c r="D9" s="88">
+        <v>2</v>
+      </c>
+      <c r="E9" s="88">
+        <v>3</v>
+      </c>
+      <c r="F9" s="88">
+        <v>4</v>
+      </c>
+      <c r="G9" s="88">
+        <v>5</v>
+      </c>
+      <c r="H9" s="88">
+        <v>6</v>
+      </c>
+      <c r="I9" s="88">
+        <v>7</v>
+      </c>
+      <c r="J9" s="88">
+        <v>8</v>
+      </c>
+      <c r="K9" s="88">
+        <v>9</v>
+      </c>
+      <c r="L9" s="88">
+        <v>10</v>
+      </c>
+      <c r="M9" s="88">
+        <v>11</v>
+      </c>
+      <c r="N9" s="88">
+        <v>12</v>
+      </c>
+      <c r="O9" s="88">
+        <v>13</v>
+      </c>
+      <c r="P9" s="88">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="88">
+        <v>15</v>
+      </c>
+      <c r="R9" s="88">
+        <v>16</v>
+      </c>
+      <c r="S9" s="88">
+        <v>17</v>
+      </c>
+      <c r="T9" s="88">
+        <v>18</v>
+      </c>
+      <c r="U9" s="88">
+        <v>19</v>
+      </c>
+      <c r="V9" s="88">
+        <v>20</v>
+      </c>
+      <c r="W9" s="88">
+        <v>21</v>
+      </c>
+      <c r="X9" s="88">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="88">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="88">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="88">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="88">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="88">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="88">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="88">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="88">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="88">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="88">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="88">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="88">
+        <v>34</v>
+      </c>
+      <c r="AK9" s="88">
+        <v>35</v>
+      </c>
+      <c r="AL9" s="88">
+        <v>36</v>
+      </c>
+      <c r="AM9" s="88">
+        <v>37</v>
+      </c>
+      <c r="AN9" s="88">
+        <v>38</v>
+      </c>
+      <c r="AO9" s="88">
+        <v>39</v>
+      </c>
+      <c r="AP9" s="88">
+        <v>40</v>
+      </c>
+      <c r="AQ9" s="88">
+        <v>41</v>
+      </c>
+      <c r="AR9" s="88">
+        <v>42</v>
+      </c>
+      <c r="AS9" s="88">
+        <v>43</v>
+      </c>
+      <c r="AT9" s="88">
+        <v>44</v>
+      </c>
+      <c r="AU9" s="88">
+        <v>45</v>
+      </c>
+      <c r="AV9" s="88">
+        <v>46</v>
+      </c>
+      <c r="AW9" s="88">
+        <v>47</v>
+      </c>
+      <c r="AX9" s="88">
+        <v>48</v>
+      </c>
+      <c r="AY9" s="88">
+        <v>49</v>
+      </c>
+      <c r="AZ9" s="88">
+        <v>50</v>
+      </c>
+      <c r="BA9" s="88">
+        <v>51</v>
+      </c>
+      <c r="BB9" s="88">
+        <v>52</v>
+      </c>
+      <c r="BC9" s="88">
+        <v>53</v>
+      </c>
+      <c r="BD9" s="88">
+        <v>54</v>
+      </c>
+      <c r="BE9" s="88">
+        <v>55</v>
+      </c>
+      <c r="BF9" s="88">
+        <v>56</v>
+      </c>
+      <c r="BG9" s="88">
+        <v>57</v>
+      </c>
+      <c r="BH9" s="88">
+        <v>58</v>
+      </c>
+      <c r="BI9" s="88">
+        <v>59</v>
+      </c>
+      <c r="BJ9" s="88">
+        <v>60</v>
+      </c>
+      <c r="BK9" s="88">
+        <v>61</v>
+      </c>
+      <c r="BL9" s="88">
+        <v>62</v>
+      </c>
+      <c r="BM9" s="88">
+        <v>63</v>
+      </c>
+      <c r="BN9" s="88">
+        <v>64</v>
+      </c>
+      <c r="BO9" s="88">
+        <v>65</v>
+      </c>
+      <c r="BP9" s="88">
+        <v>66</v>
+      </c>
+      <c r="BQ9" s="88">
+        <v>67</v>
+      </c>
+      <c r="BR9" s="88">
+        <v>68</v>
+      </c>
+      <c r="BS9" s="88">
+        <v>69</v>
+      </c>
+      <c r="BT9" s="88">
+        <v>70</v>
+      </c>
+      <c r="BU9" s="88">
+        <v>71</v>
+      </c>
+      <c r="BV9" s="88">
+        <v>72</v>
+      </c>
+      <c r="BW9" s="88">
+        <v>73</v>
+      </c>
+      <c r="BX9" s="88">
+        <v>74</v>
+      </c>
+      <c r="BY9" s="88">
+        <v>75</v>
+      </c>
+      <c r="BZ9" s="88">
+        <v>76</v>
+      </c>
+      <c r="CA9" s="88">
+        <v>77</v>
+      </c>
+      <c r="CB9" s="88">
+        <v>78</v>
+      </c>
+      <c r="CC9" s="88">
+        <v>79</v>
+      </c>
+      <c r="CD9" s="88">
+        <v>80</v>
+      </c>
+      <c r="CE9" s="88">
+        <v>81</v>
+      </c>
+      <c r="CF9" s="88">
+        <v>82</v>
+      </c>
+      <c r="CG9" s="88">
+        <v>83</v>
+      </c>
+      <c r="CH9" s="88">
+        <v>84</v>
+      </c>
+      <c r="CI9" s="88">
+        <v>85</v>
+      </c>
+      <c r="CJ9" s="88">
+        <v>86</v>
+      </c>
+      <c r="CK9" s="88">
+        <v>87</v>
+      </c>
+      <c r="CL9" s="88">
+        <v>88</v>
+      </c>
+      <c r="CM9" s="88">
+        <v>89</v>
+      </c>
+      <c r="CN9" s="88">
+        <v>90</v>
+      </c>
+      <c r="CO9" s="88">
+        <v>91</v>
+      </c>
+      <c r="CP9" s="88">
+        <v>92</v>
+      </c>
+      <c r="CQ9" s="88">
+        <v>93</v>
+      </c>
+      <c r="CR9" s="88">
+        <v>94</v>
+      </c>
+      <c r="CS9" s="88">
+        <v>95</v>
+      </c>
+      <c r="CT9" s="88">
+        <v>96</v>
+      </c>
+      <c r="CU9" s="88">
+        <v>97</v>
+      </c>
+      <c r="CV9" s="88">
+        <v>98</v>
+      </c>
+      <c r="CW9" s="88">
+        <v>99</v>
+      </c>
+      <c r="CX9" s="88">
+        <v>100</v>
+      </c>
+      <c r="CY9" s="88">
+        <v>101</v>
+      </c>
+      <c r="CZ9" s="88">
+        <v>102</v>
+      </c>
+      <c r="DA9" s="88">
+        <v>103</v>
+      </c>
+      <c r="DB9" s="88">
+        <v>104</v>
+      </c>
+      <c r="DC9" s="88">
+        <v>105</v>
+      </c>
+      <c r="DD9" s="88">
+        <v>106</v>
+      </c>
+      <c r="DE9" s="88">
+        <v>107</v>
+      </c>
+      <c r="DF9" s="88">
+        <v>108</v>
+      </c>
+      <c r="DG9" s="88">
+        <v>109</v>
+      </c>
+      <c r="DH9" s="88">
+        <v>110</v>
+      </c>
+      <c r="DI9" s="88">
+        <v>111</v>
+      </c>
+      <c r="DJ9" s="88">
+        <v>112</v>
+      </c>
+      <c r="DK9" s="88">
+        <v>113</v>
+      </c>
+      <c r="DL9" s="88">
+        <v>114</v>
+      </c>
+      <c r="DM9" s="88">
+        <v>115</v>
+      </c>
+      <c r="DN9" s="88">
+        <v>116</v>
+      </c>
+      <c r="DO9" s="88">
+        <v>117</v>
+      </c>
+      <c r="DP9" s="88">
+        <v>118</v>
+      </c>
+      <c r="DQ9" s="88">
+        <v>119</v>
+      </c>
+      <c r="DR9" s="88">
+        <v>120</v>
+      </c>
+      <c r="DS9" s="88">
+        <v>121</v>
+      </c>
+      <c r="DT9" s="88">
+        <v>122</v>
+      </c>
+      <c r="DU9" s="88">
+        <v>123</v>
+      </c>
+      <c r="DV9" s="88">
+        <v>124</v>
+      </c>
+      <c r="DW9" s="88">
+        <v>125</v>
+      </c>
+      <c r="DX9" s="88">
+        <v>126</v>
+      </c>
+      <c r="DY9" s="88">
+        <v>127</v>
+      </c>
+      <c r="DZ9" s="88">
+        <v>128</v>
+      </c>
+      <c r="EA9" s="88">
+        <v>129</v>
+      </c>
+      <c r="EB9" s="88">
+        <v>130</v>
+      </c>
+      <c r="EC9" s="88">
+        <v>131</v>
+      </c>
+      <c r="ED9" s="88">
+        <v>132</v>
+      </c>
+      <c r="EE9" s="88">
+        <v>133</v>
+      </c>
+      <c r="EF9" s="88">
+        <v>134</v>
+      </c>
+      <c r="EG9" s="88">
+        <v>135</v>
+      </c>
+      <c r="EH9" s="88">
+        <v>136</v>
+      </c>
+      <c r="EI9" s="88">
+        <v>137</v>
+      </c>
+      <c r="EJ9" s="88">
+        <v>138</v>
+      </c>
+      <c r="EK9" s="88">
+        <v>139</v>
+      </c>
+      <c r="EL9" s="88">
+        <v>140</v>
+      </c>
+      <c r="EM9" s="88">
+        <v>141</v>
+      </c>
+      <c r="EN9" s="88">
+        <v>142</v>
+      </c>
+      <c r="EO9" s="88">
+        <v>143</v>
+      </c>
+      <c r="EP9" s="88">
+        <v>144</v>
+      </c>
+      <c r="EQ9" s="88">
+        <v>145</v>
+      </c>
+      <c r="ER9" s="88">
+        <v>146</v>
+      </c>
+      <c r="ES9" s="88">
+        <v>147</v>
+      </c>
+      <c r="ET9" s="88">
+        <v>148</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" s="87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="88">
         <v>0</v>
@@ -4229,15 +4683,18 @@
         <v>0</v>
       </c>
       <c r="ES10" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="88">
         <v>0</v>
@@ -4678,15 +5135,18 @@
         <v>0</v>
       </c>
       <c r="ES11" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="88">
         <v>0</v>
@@ -5127,18 +5587,21 @@
         <v>0</v>
       </c>
       <c r="ES12" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="88">
-        <v>2038</v>
+        <v>0</v>
       </c>
       <c r="D13" s="88">
         <v>0</v>
@@ -5152,14 +5615,14 @@
       <c r="G13" s="88">
         <v>0</v>
       </c>
-      <c r="H13" s="88" t="s">
-        <v>111</v>
+      <c r="H13" s="88">
+        <v>0</v>
       </c>
       <c r="I13" s="88">
         <v>0</v>
       </c>
-      <c r="J13" s="88" t="s">
-        <v>112</v>
+      <c r="J13" s="88">
+        <v>0</v>
       </c>
       <c r="K13" s="88">
         <v>0</v>
@@ -5576,18 +6039,21 @@
         <v>0</v>
       </c>
       <c r="ES13" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="88">
-        <v>2056</v>
+        <v>2038</v>
       </c>
       <c r="D14" s="88">
         <v>0</v>
@@ -5601,14 +6067,14 @@
       <c r="G14" s="88">
         <v>0</v>
       </c>
-      <c r="H14" s="88" t="s">
-        <v>111</v>
+      <c r="H14" s="88">
+        <v>6023.15</v>
       </c>
       <c r="I14" s="88">
         <v>0</v>
       </c>
-      <c r="J14" s="88" t="s">
-        <v>112</v>
+      <c r="J14" s="88">
+        <v>8023.15</v>
       </c>
       <c r="K14" s="88">
         <v>0</v>
@@ -6025,455 +6491,913 @@
         <v>0</v>
       </c>
       <c r="ES14" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET14" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="88">
+        <v>2056</v>
+      </c>
+      <c r="D15" s="88">
+        <v>0</v>
+      </c>
+      <c r="E15" s="88">
+        <v>0</v>
+      </c>
+      <c r="F15" s="88">
+        <v>0</v>
+      </c>
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+      <c r="H15" s="88">
+        <v>6023.15</v>
+      </c>
+      <c r="I15" s="88">
+        <v>0</v>
+      </c>
+      <c r="J15" s="88">
+        <v>8023.15</v>
+      </c>
+      <c r="K15" s="88">
+        <v>0</v>
+      </c>
+      <c r="L15" s="88">
+        <v>0</v>
+      </c>
+      <c r="M15" s="88">
+        <v>0</v>
+      </c>
+      <c r="N15" s="88">
+        <v>0</v>
+      </c>
+      <c r="O15" s="88">
+        <v>0</v>
+      </c>
+      <c r="P15" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="88">
+        <v>0</v>
+      </c>
+      <c r="R15" s="88">
+        <v>0</v>
+      </c>
+      <c r="S15" s="88">
+        <v>0</v>
+      </c>
+      <c r="T15" s="88">
+        <v>0</v>
+      </c>
+      <c r="U15" s="88">
+        <v>0</v>
+      </c>
+      <c r="V15" s="88">
+        <v>0</v>
+      </c>
+      <c r="W15" s="88">
+        <v>0</v>
+      </c>
+      <c r="X15" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="88">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="88">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DE15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DF15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DH15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DK15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DL15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DM15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DO15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DP15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DR15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DS15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DU15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DV15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="88">
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EA15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EC15" s="88">
+        <v>0</v>
+      </c>
+      <c r="ED15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EE15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EH15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EM15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EN15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EO15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="88">
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="88">
+        <v>0</v>
+      </c>
+      <c r="ER15" s="88">
+        <v>0</v>
+      </c>
+      <c r="ES15" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="87">
+        <v>8</v>
+      </c>
+      <c r="B16" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="88">
-        <v>0</v>
-      </c>
-      <c r="D15" s="88">
-        <v>0</v>
-      </c>
-      <c r="E15" s="88">
-        <v>0</v>
-      </c>
-      <c r="F15" s="88">
-        <v>0</v>
-      </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
-      <c r="H15" s="88">
-        <v>0</v>
-      </c>
-      <c r="I15" s="88">
-        <v>0</v>
-      </c>
-      <c r="J15" s="88">
-        <v>0</v>
-      </c>
-      <c r="K15" s="88">
-        <v>0</v>
-      </c>
-      <c r="L15" s="88">
-        <v>0</v>
-      </c>
-      <c r="M15" s="88">
-        <v>0</v>
-      </c>
-      <c r="N15" s="88">
-        <v>0</v>
-      </c>
-      <c r="O15" s="88">
-        <v>0</v>
-      </c>
-      <c r="P15" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="88">
-        <v>0</v>
-      </c>
-      <c r="R15" s="88">
-        <v>0</v>
-      </c>
-      <c r="S15" s="88">
-        <v>0</v>
-      </c>
-      <c r="T15" s="88">
-        <v>0</v>
-      </c>
-      <c r="U15" s="88">
-        <v>0</v>
-      </c>
-      <c r="V15" s="88">
-        <v>0</v>
-      </c>
-      <c r="W15" s="88">
-        <v>0</v>
-      </c>
-      <c r="X15" s="88">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="88">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BW15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="88">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CC15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CE15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CH15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CI15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CK15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CL15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CM15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CN15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CO15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CP15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CR15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CS15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CT15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CV15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CW15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CX15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CY15" s="88">
-        <v>0</v>
-      </c>
-      <c r="CZ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DA15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DB15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DC15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DD15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DE15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DF15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DG15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DH15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DI15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DJ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DK15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DL15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DM15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DN15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DO15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DP15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DQ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DR15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DS15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DT15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DU15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DV15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DW15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DX15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DY15" s="88">
-        <v>0</v>
-      </c>
-      <c r="DZ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EA15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EB15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EC15" s="88">
-        <v>0</v>
-      </c>
-      <c r="ED15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EE15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EF15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EG15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EH15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EI15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EJ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EK15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EL15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EM15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EN15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EO15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EP15" s="88">
-        <v>0</v>
-      </c>
-      <c r="EQ15" s="88">
-        <v>0</v>
-      </c>
-      <c r="ER15" s="88">
-        <v>0</v>
-      </c>
-      <c r="ES15" s="88">
+      <c r="C16" s="88">
+        <v>0</v>
+      </c>
+      <c r="D16" s="88">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88">
+        <v>0</v>
+      </c>
+      <c r="F16" s="88">
+        <v>0</v>
+      </c>
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+      <c r="H16" s="88">
+        <v>0</v>
+      </c>
+      <c r="I16" s="88">
+        <v>0</v>
+      </c>
+      <c r="J16" s="88">
+        <v>0</v>
+      </c>
+      <c r="K16" s="88">
+        <v>0</v>
+      </c>
+      <c r="L16" s="88">
+        <v>0</v>
+      </c>
+      <c r="M16" s="88">
+        <v>0</v>
+      </c>
+      <c r="N16" s="88">
+        <v>0</v>
+      </c>
+      <c r="O16" s="88">
+        <v>0</v>
+      </c>
+      <c r="P16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="88">
+        <v>0</v>
+      </c>
+      <c r="R16" s="88">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
+      </c>
+      <c r="T16" s="88">
+        <v>0</v>
+      </c>
+      <c r="U16" s="88">
+        <v>0</v>
+      </c>
+      <c r="V16" s="88">
+        <v>0</v>
+      </c>
+      <c r="W16" s="88">
+        <v>0</v>
+      </c>
+      <c r="X16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="88">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CX16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CY16" s="88">
+        <v>0</v>
+      </c>
+      <c r="CZ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DA16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DB16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DC16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DD16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DE16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DF16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DG16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DH16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DI16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DJ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DK16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DL16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DM16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DN16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DO16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DP16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DQ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DR16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DS16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DT16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DU16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DV16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DW16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DX16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DY16" s="88">
+        <v>0</v>
+      </c>
+      <c r="DZ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EA16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EB16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EC16" s="88">
+        <v>0</v>
+      </c>
+      <c r="ED16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EE16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EF16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EG16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EH16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EI16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EJ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EK16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EL16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EM16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EN16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EO16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EP16" s="88">
+        <v>0</v>
+      </c>
+      <c r="EQ16" s="88">
+        <v>0</v>
+      </c>
+      <c r="ER16" s="88">
+        <v>0</v>
+      </c>
+      <c r="ES16" s="88">
+        <v>0</v>
+      </c>
+      <c r="ET16" s="88">
         <v>0</v>
       </c>
     </row>
